--- a/Project-CryptoQuery/First.xlsx
+++ b/Project-CryptoQuery/First.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Softwares\Git_Repository\Temp-Files\Project-CryptoQuery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Softwares\Git_Repository\160-IshavVerma-RPA\Project-CryptoQuery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792148F6-1EB4-4F0E-ADE3-A21C982375D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C59408A-3F0C-400E-B782-78ED017A625E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1470" yWindow="1200" windowWidth="14910" windowHeight="9720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22237,64 +22237,64 @@
     <t>2020a1r114@mietjammu.in</t>
   </si>
   <si>
-    <t>$37,325,890,714
-783,023 BTC</t>
-  </si>
-  <si>
-    <t>$28,859,511,852
-8,118,105 ETH</t>
-  </si>
-  <si>
-    <t>$4,963,077,691
-1,756,205,692 ADA</t>
-  </si>
-  <si>
-    <t>$2,274,841,767
-4,774,570 BNB</t>
-  </si>
-  <si>
-    <t>$89,800,304,012
-89,732,253,775 USDT</t>
-  </si>
-  <si>
-    <t>$6,185,322,815
-5,173,513,607 XRP</t>
-  </si>
-  <si>
-    <t>$1,810,001,347
-6,408,983,795 DOGE</t>
-  </si>
-  <si>
-    <t>$7,328,976,588
-63,552,206 SOL</t>
-  </si>
-  <si>
-    <t>$5,097,620,823
-167,943,058 DOT</t>
-  </si>
-  <si>
-    <t>$3,319,336,202
-3,318,550,704 USDC</t>
-  </si>
-  <si>
-    <t>$980,351,967
-32,426,058 UNI</t>
-  </si>
-  <si>
-    <t>$1,255,203,920
-38,953,803 LUNA</t>
-  </si>
-  <si>
-    <t>$6,134,693,667
-6,131,770,325 BUSD</t>
-  </si>
-  <si>
-    <t>$1,678,729,669
-60,493,552 LINK</t>
-  </si>
-  <si>
-    <t>$2,993,093,326
-4,667,037 BCH</t>
+    <t>$37,411,360,912
+784,536 BTC</t>
+  </si>
+  <si>
+    <t>$28,598,439,434
+8,077,504 ETH</t>
+  </si>
+  <si>
+    <t>$4,966,306,109
+1,756,083,719 ADA</t>
+  </si>
+  <si>
+    <t>$2,273,781,584
+4,793,443 BNB</t>
+  </si>
+  <si>
+    <t>$89,644,881,615
+89,579,597,799 USDT</t>
+  </si>
+  <si>
+    <t>$6,173,210,662
+5,166,926,643 XRP</t>
+  </si>
+  <si>
+    <t>$1,806,804,084
+6,419,970,272 DOGE</t>
+  </si>
+  <si>
+    <t>$7,396,557,369
+63,830,731 SOL</t>
+  </si>
+  <si>
+    <t>$5,042,399,415
+166,946,212 DOT</t>
+  </si>
+  <si>
+    <t>$3,316,476,621
+3,315,593,152 USDC</t>
+  </si>
+  <si>
+    <t>$974,967,477
+32,280,562 UNI</t>
+  </si>
+  <si>
+    <t>$1,259,528,152
+39,076,372 LUNA</t>
+  </si>
+  <si>
+    <t>$6,105,754,359
+6,102,999,879 BUSD</t>
+  </si>
+  <si>
+    <t>$1,672,915,965
+60,306,367 LINK</t>
+  </si>
+  <si>
+    <t>$2,991,594,005
+4,662,051 BCH</t>
   </si>
 </sst>
 </file>
@@ -22701,16 +22701,16 @@
         <v>0</v>
       </c>
       <c r="D1" s="2">
-        <v>47668.959999999999</v>
+        <v>47685.98</v>
       </c>
       <c r="E1" s="3">
-        <v>2.5000000000000001E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="F1" s="3">
-        <v>4.4000000000000003E-3</v>
+        <v>3.8999999999999998E-3</v>
       </c>
       <c r="G1" s="4">
-        <v>896335808076</v>
+        <v>896655817747</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7149</v>
@@ -22727,16 +22727,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>3554.96</v>
+        <v>3540.5</v>
       </c>
       <c r="E2" s="3">
-        <v>5.8599999999999999E-2</v>
+        <v>4.3299999999999998E-2</v>
       </c>
       <c r="F2" s="3">
-        <v>0.1386</v>
+        <v>0.1331</v>
       </c>
       <c r="G2" s="4">
-        <v>417150499739</v>
+        <v>415454644802</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7150</v>
@@ -22756,13 +22756,13 @@
         <v>2.83</v>
       </c>
       <c r="E3" s="3">
-        <v>2.3999999999999998E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="F3" s="3">
-        <v>6.7900000000000002E-2</v>
+        <v>6.59E-2</v>
       </c>
       <c r="G3" s="4">
-        <v>90843493402</v>
+        <v>90908899779</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>7151</v>
@@ -22779,16 +22779,16 @@
         <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>476.45</v>
+        <v>474.35</v>
       </c>
       <c r="E4" s="3">
-        <v>2.5399999999999999E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F4" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="G4" s="4">
-        <v>80108814126</v>
+        <v>79756213450</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>7152</v>
@@ -22808,13 +22808,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="F5" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="G5" s="4">
-        <v>65650427585</v>
+        <v>65648486467</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>7153</v>
@@ -22831,16 +22831,16 @@
         <v>6</v>
       </c>
       <c r="D6" s="2">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="E6" s="3">
-        <v>6.4899999999999999E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="F6" s="3">
-        <v>5.2299999999999999E-2</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="G6" s="4">
-        <v>55644849716</v>
+        <v>55606684425</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>7154</v>
@@ -22857,16 +22857,16 @@
         <v>7</v>
       </c>
       <c r="D7" s="2">
-        <v>0.28239999999999998</v>
+        <v>0.28139999999999998</v>
       </c>
       <c r="E7" s="3">
-        <v>2.52E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="F7" s="3">
-        <v>8.0000000000000004E-4</v>
+        <v>7.7999999999999996E-3</v>
       </c>
       <c r="G7" s="4">
-        <v>37025105988</v>
+        <v>36896454227</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>7155</v>
@@ -22883,16 +22883,16 @@
         <v>13</v>
       </c>
       <c r="D8" s="2">
-        <v>115.32</v>
+        <v>115.88</v>
       </c>
       <c r="E8" s="3">
-        <v>4.3400000000000001E-2</v>
+        <v>4.1300000000000003E-2</v>
       </c>
       <c r="F8" s="3">
-        <v>0.69979999999999998</v>
+        <v>0.71889999999999998</v>
       </c>
       <c r="G8" s="4">
-        <v>33526090112</v>
+        <v>33687595855</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>7156</v>
@@ -22909,16 +22909,16 @@
         <v>94</v>
       </c>
       <c r="D9" s="2">
-        <v>30.35</v>
+        <v>30.2</v>
       </c>
       <c r="E9" s="3">
-        <v>6.5299999999999997E-2</v>
+        <v>5.0099999999999999E-2</v>
       </c>
       <c r="F9" s="3">
-        <v>0.22009999999999999</v>
+        <v>0.2109</v>
       </c>
       <c r="G9" s="4">
-        <v>29976260697</v>
+        <v>29828585505</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>7157</v>
@@ -22941,10 +22941,10 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="G10" s="4">
-        <v>27453842978</v>
+        <v>27454659795</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>7158</v>
@@ -22961,16 +22961,16 @@
         <v>9</v>
       </c>
       <c r="D11" s="2">
-        <v>30.23</v>
+        <v>30.2</v>
       </c>
       <c r="E11" s="3">
-        <v>7.2900000000000006E-2</v>
+        <v>5.9400000000000001E-2</v>
       </c>
       <c r="F11" s="3">
-        <v>0.15770000000000001</v>
+        <v>0.15529999999999999</v>
       </c>
       <c r="G11" s="4">
-        <v>18492082070</v>
+        <v>18473406319</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>7159</v>
@@ -22987,16 +22987,16 @@
         <v>96</v>
       </c>
       <c r="D12" s="2">
-        <v>32.22</v>
+        <v>32.229999999999997</v>
       </c>
       <c r="E12" s="3">
-        <v>4.2900000000000001E-2</v>
+        <v>3.6499999999999998E-2</v>
       </c>
       <c r="F12" s="3">
-        <v>0.11169999999999999</v>
+        <v>0.1114</v>
       </c>
       <c r="G12" s="4">
-        <v>12935382421</v>
+        <v>12939231573</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>7160</v>
@@ -23022,7 +23022,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G13" s="4">
-        <v>12502066306</v>
+        <v>12501748641</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>7161</v>
@@ -23039,16 +23039,16 @@
         <v>12</v>
       </c>
       <c r="D14" s="2">
-        <v>27.75</v>
+        <v>27.74</v>
       </c>
       <c r="E14" s="3">
-        <v>5.6300000000000003E-2</v>
+        <v>4.48E-2</v>
       </c>
       <c r="F14" s="3">
-        <v>8.1799999999999998E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="G14" s="4">
-        <v>12460264432</v>
+        <v>12455654194</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>7162</v>
@@ -23065,16 +23065,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="2">
-        <v>641.33000000000004</v>
+        <v>641.69000000000005</v>
       </c>
       <c r="E15" s="3">
-        <v>2.8999999999999998E-3</v>
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="F15" s="3">
-        <v>1.6299999999999999E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="G15" s="4">
-        <v>12078538096</v>
+        <v>12085398334</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>7163</v>
@@ -23088,7 +23088,7 @@
         <v>98</v>
       </c>
       <c r="D16" s="2">
-        <v>174.98</v>
+        <v>174.74</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
@@ -23096,7 +23096,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="2">
-        <v>65.23</v>
+        <v>65.09</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
@@ -23104,7 +23104,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="2">
-        <v>47615.31</v>
+        <v>47603.199999999997</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
@@ -23128,7 +23128,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="2">
-        <v>65.64</v>
+        <v>65.58</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
@@ -23144,7 +23144,7 @@
         <v>21</v>
       </c>
       <c r="D23" s="2">
-        <v>76.72</v>
+        <v>76.84</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.25">
@@ -23152,7 +23152,7 @@
         <v>39</v>
       </c>
       <c r="D24" s="2">
-        <v>43.22</v>
+        <v>43.05</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.25">
@@ -23184,7 +23184,7 @@
         <v>25</v>
       </c>
       <c r="D28" s="2">
-        <v>296.20999999999998</v>
+        <v>295.52999999999997</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.25">
@@ -23192,23 +23192,23 @@
         <v>24</v>
       </c>
       <c r="D29" s="2">
-        <v>399.88</v>
+        <v>397.8</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D30" s="2">
-        <v>23.13</v>
+        <v>54.06</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D31" s="2">
-        <v>53.41</v>
+        <v>23.08</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.25">
@@ -23216,7 +23216,7 @@
         <v>28</v>
       </c>
       <c r="D32" s="2">
-        <v>22.83</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
@@ -23240,7 +23240,7 @@
         <v>41</v>
       </c>
       <c r="D35" s="2">
-        <v>71.67</v>
+        <v>71.569999999999993</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.25">
@@ -23280,7 +23280,7 @@
         <v>33</v>
       </c>
       <c r="D40" s="2">
-        <v>53.16</v>
+        <v>53.25</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.25">
@@ -23288,7 +23288,7 @@
         <v>29</v>
       </c>
       <c r="D41" s="2">
-        <v>47806.02</v>
+        <v>47761.3</v>
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.25">
@@ -23296,7 +23296,7 @@
         <v>32</v>
       </c>
       <c r="D42" s="2">
-        <v>3540.01</v>
+        <v>3533.57</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.25">
@@ -23304,7 +23304,7 @@
         <v>47</v>
       </c>
       <c r="D43" s="2">
-        <v>176.34</v>
+        <v>176.08</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.25">
@@ -23312,7 +23312,7 @@
         <v>53</v>
       </c>
       <c r="D44" s="2">
-        <v>376.68</v>
+        <v>376.15</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.25">
@@ -23320,7 +23320,7 @@
         <v>37</v>
       </c>
       <c r="D45" s="2">
-        <v>168.06</v>
+        <v>168.43</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.25">
@@ -23328,7 +23328,7 @@
         <v>55</v>
       </c>
       <c r="D46" s="2">
-        <v>29.16</v>
+        <v>29.05</v>
       </c>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.25">
@@ -23336,7 +23336,7 @@
         <v>46</v>
       </c>
       <c r="D47" s="2">
-        <v>1.07</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.25">
@@ -23368,7 +23368,7 @@
         <v>43</v>
       </c>
       <c r="D51" s="2">
-        <v>458.52</v>
+        <v>456.8</v>
       </c>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.25">
@@ -23408,7 +23408,7 @@
         <v>56</v>
       </c>
       <c r="D56" s="2">
-        <v>232.62</v>
+        <v>232.67</v>
       </c>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.25">
@@ -23416,7 +23416,7 @@
         <v>57</v>
       </c>
       <c r="D57" s="2">
-        <v>10.72</v>
+        <v>10.62</v>
       </c>
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.25">
@@ -23424,15 +23424,15 @@
         <v>50</v>
       </c>
       <c r="D58" s="2">
-        <v>177.42</v>
+        <v>175.99</v>
       </c>
     </row>
     <row r="59" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D59" s="2">
-        <v>0.38</v>
+        <v>23.07</v>
       </c>
     </row>
     <row r="60" spans="3:8" x14ac:dyDescent="0.25">
@@ -23440,23 +23440,23 @@
         <v>52</v>
       </c>
       <c r="D60" s="2">
-        <v>184.5</v>
+        <v>184.69</v>
       </c>
     </row>
     <row r="61" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D61" s="2">
-        <v>0.05</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="62" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C62" s="1" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="D62" s="2">
-        <v>22.91</v>
+        <v>0.05</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -23468,7 +23468,7 @@
         <v>99</v>
       </c>
       <c r="D63" s="2">
-        <v>61.45</v>
+        <v>61.31</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -23480,7 +23480,7 @@
         <v>92</v>
       </c>
       <c r="D64" s="2">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -23504,7 +23504,7 @@
         <v>61</v>
       </c>
       <c r="D66" s="2">
-        <v>145.19999999999999</v>
+        <v>145.30000000000001</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -23528,7 +23528,7 @@
         <v>58</v>
       </c>
       <c r="D68" s="2">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -23573,10 +23573,10 @@
     </row>
     <row r="72" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C72" s="1" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="D72" s="2">
-        <v>2.0499999999999998</v>
+        <v>5.56</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -23585,10 +23585,10 @@
     </row>
     <row r="73" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C73" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="D73" s="2">
-        <v>5.53</v>
+        <v>2.04</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -23612,7 +23612,7 @@
         <v>69</v>
       </c>
       <c r="D75" s="2">
-        <v>12.76</v>
+        <v>12.68</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
@@ -23624,7 +23624,7 @@
         <v>70</v>
       </c>
       <c r="D76" s="2">
-        <v>39665.919999999998</v>
+        <v>39555.629999999997</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -23636,7 +23636,7 @@
         <v>74</v>
       </c>
       <c r="D77" s="2">
-        <v>24.91</v>
+        <v>24.98</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -23672,55 +23672,55 @@
         <v>62</v>
       </c>
       <c r="D80" s="2">
-        <v>5.59</v>
+        <v>5.57</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="4"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C81" s="1" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="D81" s="2">
-        <v>22.13</v>
+        <v>75.86</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="4"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C82" s="1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D82" s="2">
-        <v>75.86</v>
+        <v>22.15</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="4"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C83" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D83" s="2">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="4"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C84" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D84" s="2">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
@@ -23744,7 +23744,7 @@
         <v>76</v>
       </c>
       <c r="D86" s="2">
-        <v>12.81</v>
+        <v>12.8</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
@@ -23780,7 +23780,7 @@
         <v>101</v>
       </c>
       <c r="D89" s="2">
-        <v>19.66</v>
+        <v>19.57</v>
       </c>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
@@ -23792,7 +23792,7 @@
         <v>84</v>
       </c>
       <c r="D90" s="2">
-        <v>13.65</v>
+        <v>13.64</v>
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
@@ -23816,7 +23816,7 @@
         <v>90</v>
       </c>
       <c r="D92" s="2">
-        <v>90.87</v>
+        <v>90.54</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
@@ -23828,7 +23828,7 @@
         <v>81</v>
       </c>
       <c r="D93" s="2">
-        <v>4.38</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
@@ -23840,7 +23840,7 @@
         <v>102</v>
       </c>
       <c r="D94" s="2">
-        <v>2.5</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
@@ -23864,7 +23864,7 @@
         <v>91</v>
       </c>
       <c r="D96" s="2">
-        <v>2.25</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
